--- a/resources.xlsx
+++ b/resources.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\satrday-r-power-bi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\satrday-r-power-bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD017F0F-C708-4498-B4A2-F46028A62B69}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4802B-5EAB-401A-B0D1-91D315670A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-25693" yWindow="-13" windowWidth="25786" windowHeight="13373" xr2:uid="{2E446843-7B60-4A24-A2DE-01DF62E0FE3D}"/>
+    <workbookView xWindow="0" yWindow="6480" windowWidth="20490" windowHeight="6915" xr2:uid="{2E446843-7B60-4A24-A2DE-01DF62E0FE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>https://docs.microsoft.com/en-us/power-bi/create-reports/desktop-r-visuals</t>
   </si>
@@ -49,12 +49,15 @@
   </si>
   <si>
     <t>https://github.com/mwaskom/seaborn-data/blob/master/penguins.csv</t>
+  </si>
+  <si>
+    <t>https://radacad.com/power-bi-and-regular-expressions</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="18"/>
@@ -91,7 +94,9 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{0BF19EC0-84C7-46FE-8885-7F3D104164DF}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -400,37 +405,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDDAE84-B75A-405B-874F-1C46CCAC51B6}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="23.1" x14ac:dyDescent="0.85"/>
+  <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.85">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/resources.xlsx
+++ b/resources.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\George Mount\Documents\GitHub\satrday-r-power-bi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8B4802B-5EAB-401A-B0D1-91D315670A8E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67646E94-17A1-493E-8394-E024A7FEB3A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="6480" windowWidth="20490" windowHeight="6915" xr2:uid="{2E446843-7B60-4A24-A2DE-01DF62E0FE3D}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="20460" windowHeight="11490" xr2:uid="{2E446843-7B60-4A24-A2DE-01DF62E0FE3D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>https://docs.microsoft.com/en-us/power-bi/create-reports/desktop-r-visuals</t>
   </si>
@@ -52,6 +52,9 @@
   </si>
   <si>
     <t>https://radacad.com/power-bi-and-regular-expressions</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/modelling-binary-logistic-regression-using-tidymodels-library-in-r-part-1-c1bdce0ac055</t>
   </si>
 </sst>
 </file>
@@ -405,10 +408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADDDAE84-B75A-405B-874F-1C46CCAC51B6}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -443,6 +446,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
